--- a/PLANTILLA.xlsx
+++ b/PLANTILLA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fast Works\canto-mortal\deadly-song-library\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fast Works\canto-mortal\upload-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>NombreLibro</t>
   </si>
@@ -52,12 +52,15 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Imagen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +94,15 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +113,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -118,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -144,6 +160,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,8 +378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -407,7 +424,9 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -7342,6 +7361,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>